--- a/biology/Zoologie/Homatula/Homatula.xlsx
+++ b/biology/Zoologie/Homatula/Homatula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Homatula est un genre de poissons téléostéens de la famille des Nemacheilidae et de l'ordre des Cypriniformes. Homatula est un genre de « loches de pierre » endémiques de Chine.
 </t>
@@ -511,25 +523,61 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (17 juillet 2015)[1] - 13 espèces:
-Homatula acuticephala (Zhou &amp; He, 1993)[2]
-Homatula anguillioides (Zhu &amp; Wang, 1985)[2]
-Homatula disparizona Min, Yang &amp; Chen, 2013[3],[2]
-Homatula erhaiensis (Zhu &amp; Cao, 1988)[2]
-Homatula laxiclathra Gu &amp; Zhang, 2012[4],[2]
-Homatula longidorsalis (Yang, Chen &amp; Kottelat, 1994)[2]
-Homatula nanpanjiangensis (Min, Chen &amp; Yang, 2010)[2]
-Homatula oligolepis (Cao &amp; Zhu, 1989)[2]
-Homatula potanini (Günther, 1896)[2]
-Homatula pycnolepis Hu &amp; Zhang, 2010[2]
-Homatula variegata (Dabry de Thiersant, 1874)[2]
-Homatula wujiangensis (Ding &amp; Deng, 1990)[2]
-Homatula wuliangensis Min, Yang &amp; Chen, 2012[5],[2]
-Note
-Selon Endruweit, M. (2015) - 14 espèces[6]:
-Homatula change Endruweit, 2015[6]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (17 juillet 2015) - 13 espèces:
+Homatula acuticephala (Zhou &amp; He, 1993)
+Homatula anguillioides (Zhu &amp; Wang, 1985)
+Homatula disparizona Min, Yang &amp; Chen, 2013,
+Homatula erhaiensis (Zhu &amp; Cao, 1988)
+Homatula laxiclathra Gu &amp; Zhang, 2012,
+Homatula longidorsalis (Yang, Chen &amp; Kottelat, 1994)
+Homatula nanpanjiangensis (Min, Chen &amp; Yang, 2010)
+Homatula oligolepis (Cao &amp; Zhu, 1989)
+Homatula potanini (Günther, 1896)
+Homatula pycnolepis Hu &amp; Zhang, 2010
+Homatula variegata (Dabry de Thiersant, 1874)
+Homatula wujiangensis (Ding &amp; Deng, 1990)
+Homatula wuliangensis Min, Yang &amp; Chen, 2012,</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Homatula</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Homatula</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Endruweit, M. (2015) - 14 espèces:
+Homatula change Endruweit, 2015</t>
         </is>
       </c>
     </row>
